--- a/documentation/ProjectBudget.xlsx
+++ b/documentation/ProjectBudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Humber - Education\CENG 317\Project\Automotive_UI\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA847A-2598-4690-976B-2EB199FF263D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0144477D-BF44-42F7-BC5F-291FA8F57E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t xml:space="preserve">This sensor will be used to get the heart rate reading </t>
   </si>
   <si>
-    <t>UIOTEC CJMCU-ADS1015 Ultra-Small 12-bit Precision Analog-to-Digital Converter ADC Development Board Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	PNJB074H7BFGB</t>
-  </si>
-  <si>
     <t>Convert Analog Signal to Digital Signal</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>http://tiny.cc/9g89cz</t>
   </si>
   <si>
-    <t>http://tiny.cc/pi89cz</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>SparkFun Electronics SEN-11574</t>
+  </si>
+  <si>
+    <t>Adafruit ADS1015 12-Bit ADC - 4 Channel with Programmable Gain Amplifier [ADA1083]</t>
+  </si>
+  <si>
+    <t>ADA1083</t>
+  </si>
+  <si>
+    <t>http://tiny.cc/tq6qdz</t>
   </si>
 </sst>
 </file>
@@ -377,72 +377,72 @@
     <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -730,7 +730,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:O18"/>
+      <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,86 +742,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="15">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28">
         <v>35.78</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="2">
         <v>8</v>
       </c>
@@ -829,56 +829,58 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="M3" s="3">
+        <f>I3+K3+L3</f>
         <v>48.43</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35" t="s">
+      <c r="N3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="4">
+        <v>13</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="M4" s="4">
+        <f>I4+K4+L4</f>
+        <v>33.89</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="16">
-        <v>13.02</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>19.52</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="36"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -906,26 +908,26 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17">
+      <c r="G6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32">
         <f>I3 +I4</f>
-        <v>48.8</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>52.769999999999996</v>
+      </c>
+      <c r="J6" s="33"/>
       <c r="K6" s="7">
         <f xml:space="preserve"> K3 +K4</f>
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7">
         <f xml:space="preserve"> L3 + L4</f>
-        <v>4.6500000000000004</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="M6" s="7">
         <f xml:space="preserve"> M3+M4</f>
-        <v>67.95</v>
+        <v>82.32</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -941,15 +943,15 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17">
+      <c r="G7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="32">
         <f>I6+K6+L6+M6</f>
-        <v>135.9</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>164.64</v>
+      </c>
+      <c r="J7" s="33"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1214,79 +1216,30 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
@@ -1311,30 +1264,79 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" xr:uid="{1DA62BFA-4420-4C99-A9BE-95440A791EC6}"/>
